--- a/src/test_data/test_1916Letters.xlsx
+++ b/src/test_data/test_1916Letters.xlsx
@@ -260,19 +260,6 @@
 Mother&lt;pb/&gt;</t>
   </si>
   <si>
-    <t>Letter 32/ p34 First Edit We have &lt;unclear&gt;____ ____&lt;/unclear&gt; &lt;lb/&gt;here now.  Darkness &lt;lb/&gt; every where for fear of the &lt;lb/&gt; &lt;del&gt;&lt;unclear&gt;bogie&lt;/unclear&gt;&lt;/del&gt;" bogie man overhead. &lt;lb/&gt; &lt;unclear&gt;Not  on gas&lt;/unclear&gt; yet in the &lt;lb/&gt; streets, &amp;amp; the horses all &lt;lb/&gt; blinded &lt;unclear&gt;___&lt;/unclear&gt;.&lt;lb/&gt;
-Oh dear! What a &lt;lb/&gt; time it is!</t>
-  </si>
-  <si>
-    <t>Letter 32/p35 First Edit "Glengariff."&lt;lb/&gt;
-Rudgrave Square,&lt;lb/&gt;
-Egremont,&lt;lb/&gt;
-Cheshire.&lt;lb/&gt;
-Feb 14-1916&lt;lb/&gt;
-Darling Pierce&lt;lb/&gt;
-Many happy returns&lt;lb/&gt; of the day!  I am at a &lt;lb/&gt; loss to know what to send &lt;lb/&gt; you; but I think this &lt;lb/&gt; little gold safety pin, with&lt;lb/&gt; a real ruby, will come&lt;lb/&gt; in handy, &amp;amp; will not get &lt;lb/&gt; lost so easily as the &lt;lb/&gt; ordinary pin.  They are &lt;lb/&gt; much &lt;unclear&gt;worse&lt;/unclear&gt; here. &lt;pb/&gt;</t>
-  </si>
-  <si>
     <t>Letter 32/p35 Second Edit"Glengariff."&lt;lb/&gt;
 Rudgrave Square,&lt;lb/&gt;
 Egremont,&lt;lb/&gt;
@@ -282,19 +269,32 @@
 Many happy returns&lt;lb/&gt; of the day!  I am at a &lt;lb/&gt; loss to know what to send &lt;lb/&gt; you; but I think this &lt;lb/&gt; little gold safety pin, with&lt;lb/&gt; a real ruby, will come&lt;lb/&gt; in handy, &amp;amp; will not get &lt;lb/&gt; lost so easily as the &lt;lb/&gt; ordinary pin.  They are &lt;lb/&gt; much worn here. &lt;pb/&gt;</t>
   </si>
   <si>
-    <t>Letter 45/p68 First Edit &lt;heading&gt; Country Club Galway &lt;/heading&gt;
+    <t>Letter 44/p67 First Edit to you both from
+your very aff'te
+cousin
+Minnie Arkwright</t>
+  </si>
+  <si>
+    <t>Letter 32 / p34 First Edit We have &lt;unclear&gt;____ ____&lt;/unclear&gt; &lt;lb/&gt;here now.  Darkness &lt;lb/&gt; every where for fear of the &lt;lb/&gt; &lt;del&gt;&lt;unclear&gt;bogie&lt;/unclear&gt;&lt;/del&gt;" bogie man overhead. &lt;lb/&gt; &lt;unclear&gt;Not  on gas&lt;/unclear&gt; yet in the &lt;lb/&gt; streets, &amp;amp; the horses all &lt;lb/&gt; blinded &lt;unclear&gt;___&lt;/unclear&gt;.&lt;lb/&gt;
+Oh dear! What a &lt;lb/&gt; time it is!</t>
+  </si>
+  <si>
+    <t>Letter 32 / p35 First Edit "Glengariff."&lt;lb/&gt;
+Rudgrave Square,&lt;lb/&gt;
+Egremont,&lt;lb/&gt;
+Cheshire.&lt;lb/&gt;
+Feb 14-1916&lt;lb/&gt;
+Darling Pierce&lt;lb/&gt;
+Many happy returns&lt;lb/&gt; of the day!  I am at a &lt;lb/&gt; loss to know what to send &lt;lb/&gt; you; but I think this &lt;lb/&gt; little gold safety pin, with&lt;lb/&gt; a real ruby, will come&lt;lb/&gt; in handy, &amp;amp; will not get &lt;lb/&gt; lost so easily as the &lt;lb/&gt; ordinary pin.  They are &lt;lb/&gt; much &lt;unclear&gt;worse&lt;/unclear&gt; here. &lt;pb/&gt;</t>
+  </si>
+  <si>
+    <t>Letter 45 / p68 First Edit &lt;heading&gt; Country Club Galway &lt;/heading&gt;
 &lt;lb/&gt;July 17th 1916
 &lt;lb/&gt;My dear Mama
 &lt;lb/&gt;Just a line to congratulate you on your &lt;lb/&gt; golden wedding - no time for more &amp;amp; catch the post as I put off decision about &lt;lb/&gt;starting till so late - I enclose &lt;lb/&gt; some lines I wrote &lt;gap/&gt; I &lt;lb/&gt; think express my thoughts better &lt;lb/&gt; than I can in a letter
 &lt;lb/&gt;With much love and much &lt;unclear&gt;regret&lt;/unclear&gt;
 &lt;lb/&gt;&lt;hi rend="underline"&gt;Your R. E. Dillon &lt;/hi&gt;
 &lt;lb/&gt;&lt;gap/&gt; my much better -</t>
-  </si>
-  <si>
-    <t>Letter 44/p67 First Edit to you both from
-your very aff'te
-cousin
-Minnie Arkwright</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="R8" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="195" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>73</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
